--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N2">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O2">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P2">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q2">
-        <v>364.948973538137</v>
+        <v>402.9599719477283</v>
       </c>
       <c r="R2">
-        <v>364.948973538137</v>
+        <v>2417.75983168637</v>
       </c>
       <c r="S2">
-        <v>0.1000768354531791</v>
+        <v>0.09995509715838413</v>
       </c>
       <c r="T2">
-        <v>0.1000768354531791</v>
+        <v>0.07463157454164353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N3">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P3">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q3">
-        <v>59.681333274066</v>
+        <v>71.92429869068333</v>
       </c>
       <c r="R3">
-        <v>59.681333274066</v>
+        <v>647.3186882161499</v>
       </c>
       <c r="S3">
-        <v>0.01636590154450976</v>
+        <v>0.01784097866824468</v>
       </c>
       <c r="T3">
-        <v>0.01636590154450976</v>
+        <v>0.01998147719168051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N4">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O4">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P4">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q4">
-        <v>759.4963759738954</v>
+        <v>856.5341807463521</v>
       </c>
       <c r="R4">
-        <v>759.4963759738954</v>
+        <v>7708.807626717169</v>
       </c>
       <c r="S4">
-        <v>0.2082701948952943</v>
+        <v>0.2124651658132548</v>
       </c>
       <c r="T4">
-        <v>0.2082701948952943</v>
+        <v>0.2379559969028234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N5">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O5">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P5">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q5">
-        <v>1141.426897984104</v>
+        <v>1252.995660174153</v>
       </c>
       <c r="R5">
-        <v>1141.426897984104</v>
+        <v>11276.96094156738</v>
       </c>
       <c r="S5">
-        <v>0.3130037351357308</v>
+        <v>0.3108082977730294</v>
       </c>
       <c r="T5">
-        <v>0.3130037351357308</v>
+        <v>0.3480979955427444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N6">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O6">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P6">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q6">
-        <v>305.248102483879</v>
+        <v>339.3398191290567</v>
       </c>
       <c r="R6">
-        <v>305.248102483879</v>
+        <v>3054.058372161509</v>
       </c>
       <c r="S6">
-        <v>0.08370557623032206</v>
+        <v>0.08417397992859021</v>
       </c>
       <c r="T6">
-        <v>0.08370557623032206</v>
+        <v>0.09427288106508218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J7">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N7">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O7">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P7">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q7">
-        <v>71.39888871318799</v>
+        <v>78.19883583550499</v>
       </c>
       <c r="R7">
-        <v>71.39888871318799</v>
+        <v>469.1930150130299</v>
       </c>
       <c r="S7">
-        <v>0.0195791065474606</v>
+        <v>0.01939739124913471</v>
       </c>
       <c r="T7">
-        <v>0.0195791065474606</v>
+        <v>0.01448308182452497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N8">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O8">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P8">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q8">
-        <v>16.41850773873512</v>
+        <v>3.510328076080667</v>
       </c>
       <c r="R8">
-        <v>16.41850773873512</v>
+        <v>21.061968456484</v>
       </c>
       <c r="S8">
-        <v>0.004502306942875776</v>
+        <v>0.0008707445114373843</v>
       </c>
       <c r="T8">
-        <v>0.004502306942875776</v>
+        <v>0.0006501422714750994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N9">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O9">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P9">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q9">
-        <v>2.684973799812278</v>
+        <v>0.6265582256866667</v>
       </c>
       <c r="R9">
-        <v>2.684973799812278</v>
+        <v>5.63902403118</v>
       </c>
       <c r="S9">
-        <v>0.0007362773994261721</v>
+        <v>0.0001554191301463054</v>
       </c>
       <c r="T9">
-        <v>0.0007362773994261721</v>
+        <v>0.0001740657764305688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N10">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O10">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P10">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q10">
-        <v>34.16860446427749</v>
+        <v>7.461574826560446</v>
       </c>
       <c r="R10">
-        <v>34.16860446427749</v>
+        <v>67.154173439044</v>
       </c>
       <c r="S10">
-        <v>0.009369764143969912</v>
+        <v>0.00185085985870614</v>
       </c>
       <c r="T10">
-        <v>0.009369764143969912</v>
+        <v>0.002072919582464385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N11">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O11">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P11">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q11">
-        <v>51.35108663566101</v>
+        <v>10.91529221589067</v>
       </c>
       <c r="R11">
-        <v>51.35108663566101</v>
+        <v>98.23762994301599</v>
       </c>
       <c r="S11">
-        <v>0.01408156926092015</v>
+        <v>0.002707561966211955</v>
       </c>
       <c r="T11">
-        <v>0.01408156926092015</v>
+        <v>0.003032405826997644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H12">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I12">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J12">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N12">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O12">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P12">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q12">
-        <v>13.73265496345355</v>
+        <v>2.956110227681334</v>
       </c>
       <c r="R12">
-        <v>13.73265496345355</v>
+        <v>26.604992049132</v>
       </c>
       <c r="S12">
-        <v>0.003765788509524904</v>
+        <v>0.000733269569159862</v>
       </c>
       <c r="T12">
-        <v>0.003765788509524904</v>
+        <v>0.0008212446998549506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H13">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I13">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J13">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N13">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O13">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P13">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q13">
-        <v>3.212129069742577</v>
+        <v>0.6812179572660001</v>
       </c>
       <c r="R13">
-        <v>3.212129069742577</v>
+        <v>4.087307743596</v>
       </c>
       <c r="S13">
-        <v>0.0008808346801211342</v>
+        <v>0.0001689775954059074</v>
       </c>
       <c r="T13">
-        <v>0.0008808346801211342</v>
+        <v>0.0001261672927736817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N14">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O14">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P14">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q14">
-        <v>21.07771968034215</v>
+        <v>16.72535465636233</v>
       </c>
       <c r="R14">
-        <v>21.07771968034215</v>
+        <v>100.352127938174</v>
       </c>
       <c r="S14">
-        <v>0.005779962781447323</v>
+        <v>0.004148760586825712</v>
       </c>
       <c r="T14">
-        <v>0.005779962781447323</v>
+        <v>0.003097676294591491</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N15">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O15">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P15">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q15">
-        <v>3.446910401484893</v>
+        <v>2.985307444303333</v>
       </c>
       <c r="R15">
-        <v>3.446910401484893</v>
+        <v>26.86776699873</v>
       </c>
       <c r="S15">
-        <v>0.0009452167565425621</v>
+        <v>0.0007405120022236228</v>
       </c>
       <c r="T15">
-        <v>0.0009452167565425621</v>
+        <v>0.0008293560548297417</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N16">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O16">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P16">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q16">
-        <v>43.86490405991137</v>
+        <v>35.55151614448155</v>
       </c>
       <c r="R16">
-        <v>43.86490405991137</v>
+        <v>319.963645300334</v>
       </c>
       <c r="S16">
-        <v>0.01202869744560194</v>
+        <v>0.00881863087584908</v>
       </c>
       <c r="T16">
-        <v>0.01202869744560194</v>
+        <v>0.009876659514271179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H17">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I17">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J17">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N17">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O17">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P17">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q17">
-        <v>65.92339733981282</v>
+        <v>52.00714278889732</v>
       </c>
       <c r="R17">
-        <v>65.92339733981282</v>
+        <v>468.0642851000759</v>
       </c>
       <c r="S17">
-        <v>0.01807760938229236</v>
+        <v>0.01290048484286801</v>
       </c>
       <c r="T17">
-        <v>0.01807760938229236</v>
+        <v>0.01444824011298191</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H18">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I18">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J18">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N18">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O18">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P18">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q18">
-        <v>17.62968086945231</v>
+        <v>14.08472111144467</v>
       </c>
       <c r="R18">
-        <v>17.62968086945231</v>
+        <v>126.762490003002</v>
       </c>
       <c r="S18">
-        <v>0.004834436590845399</v>
+        <v>0.003493745694735705</v>
       </c>
       <c r="T18">
-        <v>0.004834436590845399</v>
+        <v>0.003912913142884324</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H19">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I19">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J19">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N19">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O19">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P19">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q19">
-        <v>4.123660760556317</v>
+        <v>3.245739909950999</v>
       </c>
       <c r="R19">
-        <v>4.123660760556317</v>
+        <v>19.474439459706</v>
       </c>
       <c r="S19">
-        <v>0.00113079621898375</v>
+        <v>0.0008051128415605553</v>
       </c>
       <c r="T19">
-        <v>0.00113079621898375</v>
+        <v>0.0006011383186807397</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H20">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I20">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J20">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N20">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O20">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P20">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q20">
-        <v>90.06263810871862</v>
+        <v>25.85713610210333</v>
       </c>
       <c r="R20">
-        <v>90.06263810871862</v>
+        <v>155.14281661262</v>
       </c>
       <c r="S20">
-        <v>0.02469710690539475</v>
+        <v>0.006413918828787708</v>
       </c>
       <c r="T20">
-        <v>0.02469710690539475</v>
+        <v>0.004788958990417723</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H21">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I21">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J21">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N21">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O21">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P21">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q21">
-        <v>14.72824616657359</v>
+        <v>4.615238509433333</v>
       </c>
       <c r="R21">
-        <v>14.72824616657359</v>
+        <v>41.5371465849</v>
       </c>
       <c r="S21">
-        <v>0.004038800969451345</v>
+        <v>0.001144819946730011</v>
       </c>
       <c r="T21">
-        <v>0.004038800969451345</v>
+        <v>0.001282171459286725</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H22">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I22">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J22">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N22">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O22">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P22">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q22">
-        <v>187.4296195193223</v>
+        <v>54.96208663260222</v>
       </c>
       <c r="R22">
-        <v>187.4296195193223</v>
+        <v>494.65877969342</v>
       </c>
       <c r="S22">
-        <v>0.05139722139738269</v>
+        <v>0.01363346508794657</v>
       </c>
       <c r="T22">
-        <v>0.05139722139738269</v>
+        <v>0.0152691607766593</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H23">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I23">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J23">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N23">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O23">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P23">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q23">
-        <v>281.6829888410609</v>
+        <v>80.40222745665332</v>
       </c>
       <c r="R23">
-        <v>281.6829888410609</v>
+        <v>723.6200471098799</v>
       </c>
       <c r="S23">
-        <v>0.07724351667825885</v>
+        <v>0.01994394733138107</v>
       </c>
       <c r="T23">
-        <v>0.07724351667825885</v>
+        <v>0.02233675271544262</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H24">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I24">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J24">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N24">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O24">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P24">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q24">
-        <v>75.32957038035292</v>
+        <v>21.77475803780667</v>
       </c>
       <c r="R24">
-        <v>75.32957038035292</v>
+        <v>195.97282234026</v>
       </c>
       <c r="S24">
-        <v>0.02065698376029398</v>
+        <v>0.005401276074020587</v>
       </c>
       <c r="T24">
-        <v>0.02065698376029398</v>
+        <v>0.006049302377739488</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.58338</v>
+      </c>
+      <c r="I25">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J25">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.8270905</v>
+      </c>
+      <c r="N25">
+        <v>11.654181</v>
+      </c>
+      <c r="O25">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P25">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q25">
+        <v>5.01786301863</v>
+      </c>
+      <c r="R25">
+        <v>30.10717811178</v>
+      </c>
+      <c r="S25">
+        <v>0.00124469183162363</v>
+      </c>
+      <c r="T25">
+        <v>0.0009293504168776843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.0270995</v>
+      </c>
+      <c r="N26">
+        <v>60.054199</v>
+      </c>
+      <c r="O26">
+        <v>0.1342326156631674</v>
+      </c>
+      <c r="P26">
+        <v>0.09453939633554115</v>
+      </c>
+      <c r="Q26">
+        <v>92.09390988463674</v>
+      </c>
+      <c r="R26">
+        <v>368.375639538547</v>
+      </c>
+      <c r="S26">
+        <v>0.0228440945777325</v>
+      </c>
+      <c r="T26">
+        <v>0.01137104423741331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0670265</v>
+      </c>
+      <c r="H27">
+        <v>6.134053</v>
+      </c>
+      <c r="I27">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J27">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.359535</v>
+      </c>
+      <c r="N27">
+        <v>16.078605</v>
+      </c>
+      <c r="O27">
+        <v>0.02395917067475312</v>
+      </c>
+      <c r="P27">
+        <v>0.02531149588087277</v>
+      </c>
+      <c r="Q27">
+        <v>16.4378358726775</v>
+      </c>
+      <c r="R27">
+        <v>98.62701523606499</v>
+      </c>
+      <c r="S27">
+        <v>0.004077440927408508</v>
+      </c>
+      <c r="T27">
+        <v>0.003044425398645229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0670265</v>
+      </c>
+      <c r="H28">
+        <v>6.134053</v>
+      </c>
+      <c r="I28">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J28">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>63.82578633333333</v>
+      </c>
+      <c r="N28">
+        <v>191.477359</v>
+      </c>
+      <c r="O28">
+        <v>0.2853256687773582</v>
+      </c>
+      <c r="P28">
+        <v>0.3014302785352894</v>
+      </c>
+      <c r="Q28">
+        <v>195.7553780676712</v>
+      </c>
+      <c r="R28">
+        <v>1174.532268406027</v>
+      </c>
+      <c r="S28">
+        <v>0.04855754714160164</v>
+      </c>
+      <c r="T28">
+        <v>0.03625554175907118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0670265</v>
+      </c>
+      <c r="H29">
+        <v>6.134053</v>
+      </c>
+      <c r="I29">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J29">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>93.36864199999998</v>
+      </c>
+      <c r="N29">
+        <v>280.105926</v>
+      </c>
+      <c r="O29">
+        <v>0.4173935293543045</v>
+      </c>
+      <c r="P29">
+        <v>0.4409524328856299</v>
+      </c>
+      <c r="Q29">
+        <v>286.3640992830129</v>
+      </c>
+      <c r="R29">
+        <v>1718.184595698078</v>
+      </c>
+      <c r="S29">
+        <v>0.07103323744081397</v>
+      </c>
+      <c r="T29">
+        <v>0.0530370386874633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H25">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J25">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.78317521597262</v>
-      </c>
-      <c r="N25">
-        <v>5.78317521597262</v>
-      </c>
-      <c r="O25">
-        <v>0.02642249781673602</v>
-      </c>
-      <c r="P25">
-        <v>0.02642249781673602</v>
-      </c>
-      <c r="Q25">
-        <v>17.61992152820387</v>
-      </c>
-      <c r="R25">
-        <v>17.61992152820387</v>
-      </c>
-      <c r="S25">
-        <v>0.004831760370170538</v>
-      </c>
-      <c r="T25">
-        <v>0.004831760370170538</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0670265</v>
+      </c>
+      <c r="H30">
+        <v>6.134053</v>
+      </c>
+      <c r="I30">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J30">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.286359</v>
+      </c>
+      <c r="N30">
+        <v>75.859077</v>
+      </c>
+      <c r="O30">
+        <v>0.1130396930002472</v>
+      </c>
+      <c r="P30">
+        <v>0.1194199817093778</v>
+      </c>
+      <c r="Q30">
+        <v>77.5539331415135</v>
+      </c>
+      <c r="R30">
+        <v>465.323598849081</v>
+      </c>
+      <c r="S30">
+        <v>0.0192374217337408</v>
+      </c>
+      <c r="T30">
+        <v>0.01436364042381687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0670265</v>
+      </c>
+      <c r="H31">
+        <v>6.134053</v>
+      </c>
+      <c r="I31">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J31">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.8270905</v>
+      </c>
+      <c r="N31">
+        <v>11.654181</v>
+      </c>
+      <c r="O31">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P31">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q31">
+        <v>17.87184098139825</v>
+      </c>
+      <c r="R31">
+        <v>71.48736392559299</v>
+      </c>
+      <c r="S31">
+        <v>0.004433149012444794</v>
+      </c>
+      <c r="T31">
+        <v>0.002206676800431919</v>
       </c>
     </row>
   </sheetData>
